--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna3-Epha3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna3-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Efna3</t>
+  </si>
+  <si>
+    <t>Epha3</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Efna3</t>
-  </si>
-  <si>
-    <t>Epha3</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1204136666666667</v>
+        <v>0.3193606666666667</v>
       </c>
       <c r="H2">
-        <v>0.361241</v>
+        <v>0.958082</v>
       </c>
       <c r="I2">
-        <v>0.5163152538690664</v>
+        <v>0.7979421849584948</v>
       </c>
       <c r="J2">
-        <v>0.5163152538690664</v>
+        <v>0.7979421849584948</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1220006666666667</v>
+        <v>0.07579599999999999</v>
       </c>
       <c r="N2">
-        <v>0.366002</v>
+        <v>0.227388</v>
       </c>
       <c r="O2">
-        <v>0.003000890193633104</v>
+        <v>0.001780200955210419</v>
       </c>
       <c r="P2">
-        <v>0.003000890193633103</v>
+        <v>0.001780200955210419</v>
       </c>
       <c r="Q2">
-        <v>0.01469054760911111</v>
+        <v>0.02420626109066666</v>
       </c>
       <c r="R2">
-        <v>0.132214928482</v>
+        <v>0.217856349816</v>
       </c>
       <c r="S2">
-        <v>0.001549405382158868</v>
+        <v>0.001420497439865801</v>
       </c>
       <c r="T2">
-        <v>0.001549405382158868</v>
+        <v>0.001420497439865801</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1204136666666667</v>
+        <v>0.3193606666666667</v>
       </c>
       <c r="H3">
-        <v>0.361241</v>
+        <v>0.958082</v>
       </c>
       <c r="I3">
-        <v>0.5163152538690664</v>
+        <v>0.7979421849584948</v>
       </c>
       <c r="J3">
-        <v>0.5163152538690664</v>
+        <v>0.7979421849584948</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +623,22 @@
         <v>120.382021</v>
       </c>
       <c r="O3">
-        <v>0.987025279393649</v>
+        <v>0.9424604146848589</v>
       </c>
       <c r="P3">
-        <v>0.987025279393649</v>
+        <v>0.9424604146848587</v>
       </c>
       <c r="Q3">
-        <v>4.831880183117888</v>
+        <v>12.81509416041355</v>
       </c>
       <c r="R3">
-        <v>43.48692164806099</v>
+        <v>115.335847443722</v>
       </c>
       <c r="S3">
-        <v>0.5096162077053181</v>
+        <v>0.7520289225305253</v>
       </c>
       <c r="T3">
-        <v>0.5096162077053181</v>
+        <v>0.7520289225305252</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1204136666666667</v>
+        <v>0.3193606666666667</v>
       </c>
       <c r="H4">
-        <v>0.361241</v>
+        <v>0.958082</v>
       </c>
       <c r="I4">
-        <v>0.5163152538690664</v>
+        <v>0.7979421849584948</v>
       </c>
       <c r="J4">
-        <v>0.5163152538690664</v>
+        <v>0.7979421849584948</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,60 +679,60 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4054843333333333</v>
+        <v>2.344072666666666</v>
       </c>
       <c r="N4">
-        <v>1.216453</v>
+        <v>7.032217999999999</v>
       </c>
       <c r="O4">
-        <v>0.009973830412717882</v>
+        <v>0.05505462557763778</v>
       </c>
       <c r="P4">
-        <v>0.00997383041271788</v>
+        <v>0.05505462557763778</v>
       </c>
       <c r="Q4">
-        <v>0.04882585535255555</v>
+        <v>0.7486046095417778</v>
       </c>
       <c r="R4">
-        <v>0.439432698173</v>
+        <v>6.737441485875999</v>
       </c>
       <c r="S4">
-        <v>0.005149640781589448</v>
+        <v>0.04393040822549212</v>
       </c>
       <c r="T4">
-        <v>0.005149640781589447</v>
+        <v>0.04393040822549212</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.08086966666666667</v>
+        <v>0.3193606666666667</v>
       </c>
       <c r="H5">
-        <v>0.242609</v>
+        <v>0.958082</v>
       </c>
       <c r="I5">
-        <v>0.3467566733175922</v>
+        <v>0.7979421849584948</v>
       </c>
       <c r="J5">
-        <v>0.3467566733175922</v>
+        <v>0.7979421849584948</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1220006666666667</v>
+        <v>0.03000666666666667</v>
       </c>
       <c r="N5">
-        <v>0.366002</v>
+        <v>0.09002</v>
       </c>
       <c r="O5">
-        <v>0.003000890193633104</v>
+        <v>0.0007047587822930054</v>
       </c>
       <c r="P5">
-        <v>0.003000890193633103</v>
+        <v>0.0007047587822930053</v>
       </c>
       <c r="Q5">
-        <v>0.009866153246444445</v>
+        <v>0.009582949071111112</v>
       </c>
       <c r="R5">
-        <v>0.088795379218</v>
+        <v>0.08624654164000001</v>
       </c>
       <c r="S5">
-        <v>0.0010405787005356</v>
+        <v>0.0005623567626115689</v>
       </c>
       <c r="T5">
-        <v>0.0010405787005356</v>
+        <v>0.0005623567626115688</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -782,46 +785,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.08086966666666667</v>
+        <v>0.08086966666666666</v>
       </c>
       <c r="H6">
         <v>0.242609</v>
       </c>
       <c r="I6">
-        <v>0.3467566733175922</v>
+        <v>0.2020578150415052</v>
       </c>
       <c r="J6">
-        <v>0.3467566733175922</v>
+        <v>0.2020578150415053</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>40.12734033333333</v>
+        <v>0.07579599999999999</v>
       </c>
       <c r="N6">
-        <v>120.382021</v>
+        <v>0.227388</v>
       </c>
       <c r="O6">
-        <v>0.987025279393649</v>
+        <v>0.001780200955210419</v>
       </c>
       <c r="P6">
-        <v>0.987025279393649</v>
+        <v>0.001780200955210419</v>
       </c>
       <c r="Q6">
-        <v>3.245084636976555</v>
+        <v>0.006129597254666665</v>
       </c>
       <c r="R6">
-        <v>29.205761732789</v>
+        <v>0.05516637529199999</v>
       </c>
       <c r="S6">
-        <v>0.3422576023629088</v>
+        <v>0.0003597035153446177</v>
       </c>
       <c r="T6">
-        <v>0.3422576023629088</v>
+        <v>0.0003597035153446178</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -844,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.08086966666666667</v>
+        <v>0.08086966666666666</v>
       </c>
       <c r="H7">
         <v>0.242609</v>
       </c>
       <c r="I7">
-        <v>0.3467566733175922</v>
+        <v>0.2020578150415052</v>
       </c>
       <c r="J7">
-        <v>0.3467566733175922</v>
+        <v>0.2020578150415053</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +865,152 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4054843333333333</v>
+        <v>40.12734033333333</v>
       </c>
       <c r="N7">
-        <v>1.216453</v>
+        <v>120.382021</v>
       </c>
       <c r="O7">
-        <v>0.009973830412717882</v>
+        <v>0.9424604146848589</v>
       </c>
       <c r="P7">
-        <v>0.00997383041271788</v>
+        <v>0.9424604146848587</v>
       </c>
       <c r="Q7">
-        <v>0.03279138287522222</v>
+        <v>3.245084636976555</v>
       </c>
       <c r="R7">
-        <v>0.295122445877</v>
+        <v>29.205761732789</v>
       </c>
       <c r="S7">
-        <v>0.003458492254147881</v>
+        <v>0.1904314921543336</v>
       </c>
       <c r="T7">
-        <v>0.00345849225414788</v>
+        <v>0.1904314921543336</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.031934</v>
+        <v>0.08086966666666666</v>
       </c>
       <c r="H8">
-        <v>0.095802</v>
+        <v>0.242609</v>
       </c>
       <c r="I8">
-        <v>0.1369280728133415</v>
+        <v>0.2020578150415052</v>
       </c>
       <c r="J8">
-        <v>0.1369280728133415</v>
+        <v>0.2020578150415053</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1220006666666667</v>
+        <v>2.344072666666666</v>
       </c>
       <c r="N8">
-        <v>0.366002</v>
+        <v>7.032217999999999</v>
       </c>
       <c r="O8">
-        <v>0.003000890193633104</v>
+        <v>0.05505462557763778</v>
       </c>
       <c r="P8">
-        <v>0.003000890193633103</v>
+        <v>0.05505462557763778</v>
       </c>
       <c r="Q8">
-        <v>0.003895969289333333</v>
+        <v>0.1895643751957777</v>
       </c>
       <c r="R8">
-        <v>0.035063723604</v>
+        <v>1.706079376762</v>
       </c>
       <c r="S8">
-        <v>0.0004109061109386361</v>
+        <v>0.01112421735214566</v>
       </c>
       <c r="T8">
-        <v>0.000410906110938636</v>
+        <v>0.01112421735214566</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.08086966666666666</v>
+      </c>
+      <c r="H9">
+        <v>0.242609</v>
+      </c>
+      <c r="I9">
+        <v>0.2020578150415052</v>
+      </c>
+      <c r="J9">
+        <v>0.2020578150415053</v>
+      </c>
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="L9">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G9">
-        <v>0.031934</v>
-      </c>
-      <c r="H9">
-        <v>0.095802</v>
-      </c>
-      <c r="I9">
-        <v>0.1369280728133415</v>
-      </c>
-      <c r="J9">
-        <v>0.1369280728133415</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
       <c r="M9">
-        <v>40.12734033333333</v>
+        <v>0.03000666666666667</v>
       </c>
       <c r="N9">
-        <v>120.382021</v>
+        <v>0.09002</v>
       </c>
       <c r="O9">
-        <v>0.987025279393649</v>
+        <v>0.0007047587822930054</v>
       </c>
       <c r="P9">
-        <v>0.987025279393649</v>
+        <v>0.0007047587822930053</v>
       </c>
       <c r="Q9">
-        <v>1.281426486204666</v>
+        <v>0.002426629131111111</v>
       </c>
       <c r="R9">
-        <v>11.532838375842</v>
+        <v>0.02183966218</v>
       </c>
       <c r="S9">
-        <v>0.1351514693254223</v>
+        <v>0.0001424020196814365</v>
       </c>
       <c r="T9">
-        <v>0.1351514693254223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.031934</v>
-      </c>
-      <c r="H10">
-        <v>0.095802</v>
-      </c>
-      <c r="I10">
-        <v>0.1369280728133415</v>
-      </c>
-      <c r="J10">
-        <v>0.1369280728133415</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.4054843333333333</v>
-      </c>
-      <c r="N10">
-        <v>1.216453</v>
-      </c>
-      <c r="O10">
-        <v>0.009973830412717882</v>
-      </c>
-      <c r="P10">
-        <v>0.00997383041271788</v>
-      </c>
-      <c r="Q10">
-        <v>0.01294873670066667</v>
-      </c>
-      <c r="R10">
-        <v>0.116538630306</v>
-      </c>
-      <c r="S10">
-        <v>0.001365697376980554</v>
-      </c>
-      <c r="T10">
-        <v>0.001365697376980554</v>
+        <v>0.0001424020196814365</v>
       </c>
     </row>
   </sheetData>
